--- a/exercise1/przejscia.xlsx
+++ b/exercise1/przejscia.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\eclipse-workspace\math_linguistics\exercise1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12090"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
   <si>
     <t>q0</t>
   </si>
@@ -43,13 +48,31 @@
   </si>
   <si>
     <t>q8</t>
+  </si>
+  <si>
+    <t>q9</t>
+  </si>
+  <si>
+    <t>q10</t>
+  </si>
+  <si>
+    <t>q11</t>
+  </si>
+  <si>
+    <t>q12</t>
+  </si>
+  <si>
+    <t>stan nieakceptowalny</t>
+  </si>
+  <si>
+    <t>od q7 nic nie można wrzucić</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +85,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -88,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -163,51 +194,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -217,6 +272,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -265,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,7 +358,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,154 +567,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="10">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
+      <c r="B10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
